--- a/teams-and-rosters/CS320-Sp20-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp20-Teams.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Section 101 (MWF 9:00 - 9:50)</t>
   </si>
@@ -27,15 +27,9 @@
     <t>Section 103 (MWF 2:00 - 2:50)</t>
   </si>
   <si>
-    <t>In-Class Mentors: ???</t>
-  </si>
-  <si>
     <t>CS320: Software Engineering Teams - Spring 2020</t>
   </si>
   <si>
-    <t>In-Class Mentors: ????</t>
-  </si>
-  <si>
     <t>Team 1:
 ???</t>
   </si>
@@ -82,6 +76,15 @@
   <si>
     <t>Team 12:
 ???</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Marie Kiley</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Andrew Georgiou, Quintin Herb</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Quntin Herb, Joel Horne, Tom McAdams</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +672,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -694,7 +697,7 @@
     </row>
     <row r="5" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -703,16 +706,16 @@
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -751,7 +754,7 @@
     </row>
     <row r="13" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -760,16 +763,16 @@
     </row>
     <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -808,7 +811,7 @@
     </row>
     <row r="21" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="25" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -817,16 +820,16 @@
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/teams-and-rosters/CS320-Sp20-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp20-Teams.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Section 101 (MWF 9:00 - 9:50)</t>
   </si>
@@ -85,6 +85,114 @@
   </si>
   <si>
     <t>In-Class Mentors: Quntin Herb, Joel Horne, Tom McAdams</t>
+  </si>
+  <si>
+    <t>Austin Canzano</t>
+  </si>
+  <si>
+    <t>Lepakshi Agarwal</t>
+  </si>
+  <si>
+    <t>Shae Melendez</t>
+  </si>
+  <si>
+    <t>Shea Riordan</t>
+  </si>
+  <si>
+    <t>Jared Tribett</t>
+  </si>
+  <si>
+    <t>Teng Tao</t>
+  </si>
+  <si>
+    <t>William Batchelor</t>
+  </si>
+  <si>
+    <t>Alex Baldwin</t>
+  </si>
+  <si>
+    <t>Cayden Reynolds</t>
+  </si>
+  <si>
+    <t>Le Quient Lewis</t>
+  </si>
+  <si>
+    <t>Gabriel Holley</t>
+  </si>
+  <si>
+    <t>Alex Louderback</t>
+  </si>
+  <si>
+    <t>Caryn Sims</t>
+  </si>
+  <si>
+    <t>Eric Bosse</t>
+  </si>
+  <si>
+    <t>Isabelle Hoffmann</t>
+  </si>
+  <si>
+    <t>Brett Kearney</t>
+  </si>
+  <si>
+    <t>Dan Palmieri</t>
+  </si>
+  <si>
+    <t>Earl Kennedy</t>
+  </si>
+  <si>
+    <t>Kai Barclay</t>
+  </si>
+  <si>
+    <t>Ralph Greaves</t>
+  </si>
+  <si>
+    <t>Brooke Tingley</t>
+  </si>
+  <si>
+    <t>Will Wyatt</t>
+  </si>
+  <si>
+    <t>Anthony Beddia</t>
+  </si>
+  <si>
+    <t>Blake Nelson</t>
+  </si>
+  <si>
+    <t>David Moore</t>
+  </si>
+  <si>
+    <t>Ryan Black</t>
+  </si>
+  <si>
+    <t>Alina Endres</t>
+  </si>
+  <si>
+    <t>Robert Doster</t>
+  </si>
+  <si>
+    <t>Bill Abram</t>
+  </si>
+  <si>
+    <t>Dylan Bieber</t>
+  </si>
+  <si>
+    <t>David McHugh</t>
+  </si>
+  <si>
+    <t>Mikayla Trost</t>
+  </si>
+  <si>
+    <t>Trevor Gerst</t>
+  </si>
+  <si>
+    <t>Jack Anderson</t>
+  </si>
+  <si>
+    <t>Lucas Plaud Smith</t>
+  </si>
+  <si>
+    <t>Zack Recay</t>
   </si>
 </sst>
 </file>
@@ -658,7 +766,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,25 +827,39 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" s="17"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="18"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
+      <c r="B10" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="22"/>
       <c r="D10" s="20"/>
       <c r="E10" s="3"/>
@@ -776,27 +898,55 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -833,28 +983,58 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/teams-and-rosters/CS320-Sp20-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp20-Teams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22365" windowHeight="12075"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="12780" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,14 +30,6 @@
     <t>CS320: Software Engineering Teams - Spring 2020</t>
   </si>
   <si>
-    <t>Team 1:
-???</t>
-  </si>
-  <si>
-    <t>Team 2:
-???</t>
-  </si>
-  <si>
     <t>Team 3:
 ???</t>
   </si>
@@ -46,153 +38,161 @@
 ???</t>
   </si>
   <si>
+    <t>In-Class Mentors: Marie Kiley</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Andrew Georgiou, Quintin Herb</t>
+  </si>
+  <si>
+    <t>In-Class Mentors: Quntin Herb, Joel Horne, Tom McAdams</t>
+  </si>
+  <si>
+    <t>Austin Canzano</t>
+  </si>
+  <si>
+    <t>Lepakshi Agarwal</t>
+  </si>
+  <si>
+    <t>Shae Melendez</t>
+  </si>
+  <si>
+    <t>Shea Riordan</t>
+  </si>
+  <si>
+    <t>Jared Tribett</t>
+  </si>
+  <si>
+    <t>Teng Tao</t>
+  </si>
+  <si>
+    <t>William Batchelor</t>
+  </si>
+  <si>
+    <t>Alex Baldwin</t>
+  </si>
+  <si>
+    <t>Cayden Reynolds</t>
+  </si>
+  <si>
+    <t>Le Quient Lewis</t>
+  </si>
+  <si>
+    <t>Gabriel Holley</t>
+  </si>
+  <si>
+    <t>Alex Louderback</t>
+  </si>
+  <si>
+    <t>Caryn Sims</t>
+  </si>
+  <si>
+    <t>Eric Bosse</t>
+  </si>
+  <si>
+    <t>Isabelle Hoffmann</t>
+  </si>
+  <si>
+    <t>Brett Kearney</t>
+  </si>
+  <si>
+    <t>Dan Palmieri</t>
+  </si>
+  <si>
+    <t>Earl Kennedy</t>
+  </si>
+  <si>
+    <t>Kai Barclay</t>
+  </si>
+  <si>
+    <t>Ralph Greaves</t>
+  </si>
+  <si>
+    <t>Brooke Tingley</t>
+  </si>
+  <si>
+    <t>Will Wyatt</t>
+  </si>
+  <si>
+    <t>Anthony Beddia</t>
+  </si>
+  <si>
+    <t>Blake Nelson</t>
+  </si>
+  <si>
+    <t>David Moore</t>
+  </si>
+  <si>
+    <t>Ryan Black</t>
+  </si>
+  <si>
+    <t>Alina Endres</t>
+  </si>
+  <si>
+    <t>Robert Doster</t>
+  </si>
+  <si>
+    <t>Bill Abram</t>
+  </si>
+  <si>
+    <t>Dylan Bieber</t>
+  </si>
+  <si>
+    <t>David McHugh</t>
+  </si>
+  <si>
+    <t>Mikayla Trost</t>
+  </si>
+  <si>
+    <t>Trevor Gerst</t>
+  </si>
+  <si>
+    <t>Jack Anderson</t>
+  </si>
+  <si>
+    <t>Lucas Plaud Smith</t>
+  </si>
+  <si>
+    <t>Zack Recay</t>
+  </si>
+  <si>
+    <t>Team 9:
+YCP Project Database</t>
+  </si>
+  <si>
     <t>Team 5:
-???</t>
+Classic Board Games</t>
+  </si>
+  <si>
+    <t>Team 1:
+myCommencement</t>
   </si>
   <si>
     <t>Team 6:
-???</t>
+JavaChess</t>
+  </si>
+  <si>
+    <t>Team 10:
+YCP Tutoring Service</t>
+  </si>
+  <si>
+    <t>Team 11:
+VSS: Virtual Stock Sim</t>
+  </si>
+  <si>
+    <t>Team 12:
+TGTAEM</t>
   </si>
   <si>
     <t>Team 7:
-???</t>
+Air Quality Monitor</t>
   </si>
   <si>
     <t>Team 8:
-???</t>
-  </si>
-  <si>
-    <t>Team 9:
-???</t>
-  </si>
-  <si>
-    <t>Team 10:
-???</t>
-  </si>
-  <si>
-    <t>Team 11:
-???</t>
-  </si>
-  <si>
-    <t>Team 12:
-???</t>
-  </si>
-  <si>
-    <t>In-Class Mentors: Marie Kiley</t>
-  </si>
-  <si>
-    <t>In-Class Mentors: Andrew Georgiou, Quintin Herb</t>
-  </si>
-  <si>
-    <t>In-Class Mentors: Quntin Herb, Joel Horne, Tom McAdams</t>
-  </si>
-  <si>
-    <t>Austin Canzano</t>
-  </si>
-  <si>
-    <t>Lepakshi Agarwal</t>
-  </si>
-  <si>
-    <t>Shae Melendez</t>
-  </si>
-  <si>
-    <t>Shea Riordan</t>
-  </si>
-  <si>
-    <t>Jared Tribett</t>
-  </si>
-  <si>
-    <t>Teng Tao</t>
-  </si>
-  <si>
-    <t>William Batchelor</t>
-  </si>
-  <si>
-    <t>Alex Baldwin</t>
-  </si>
-  <si>
-    <t>Cayden Reynolds</t>
-  </si>
-  <si>
-    <t>Le Quient Lewis</t>
-  </si>
-  <si>
-    <t>Gabriel Holley</t>
-  </si>
-  <si>
-    <t>Alex Louderback</t>
-  </si>
-  <si>
-    <t>Caryn Sims</t>
-  </si>
-  <si>
-    <t>Eric Bosse</t>
-  </si>
-  <si>
-    <t>Isabelle Hoffmann</t>
-  </si>
-  <si>
-    <t>Brett Kearney</t>
-  </si>
-  <si>
-    <t>Dan Palmieri</t>
-  </si>
-  <si>
-    <t>Earl Kennedy</t>
-  </si>
-  <si>
-    <t>Kai Barclay</t>
-  </si>
-  <si>
-    <t>Ralph Greaves</t>
-  </si>
-  <si>
-    <t>Brooke Tingley</t>
-  </si>
-  <si>
-    <t>Will Wyatt</t>
-  </si>
-  <si>
-    <t>Anthony Beddia</t>
-  </si>
-  <si>
-    <t>Blake Nelson</t>
-  </si>
-  <si>
-    <t>David Moore</t>
-  </si>
-  <si>
-    <t>Ryan Black</t>
-  </si>
-  <si>
-    <t>Alina Endres</t>
-  </si>
-  <si>
-    <t>Robert Doster</t>
-  </si>
-  <si>
-    <t>Bill Abram</t>
-  </si>
-  <si>
-    <t>Dylan Bieber</t>
-  </si>
-  <si>
-    <t>David McHugh</t>
-  </si>
-  <si>
-    <t>Mikayla Trost</t>
-  </si>
-  <si>
-    <t>Trevor Gerst</t>
-  </si>
-  <si>
-    <t>Jack Anderson</t>
-  </si>
-  <si>
-    <t>Lucas Plaud Smith</t>
-  </si>
-  <si>
-    <t>Zack Recay</t>
+Minotaur's Labyrinth</t>
+  </si>
+  <si>
+    <t>Team 2:
+Adventure Game</t>
   </si>
 </sst>
 </file>
@@ -766,7 +766,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +805,7 @@
     </row>
     <row r="5" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -814,51 +814,51 @@
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="22" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="20"/>
@@ -876,7 +876,7 @@
     </row>
     <row r="13" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -885,67 +885,67 @@
     </row>
     <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E18" s="21"/>
     </row>
@@ -961,7 +961,7 @@
     </row>
     <row r="21" spans="2:6" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="25" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -970,70 +970,70 @@
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/teams-and-rosters/CS320-Sp20-Teams.xlsx
+++ b/teams-and-rosters/CS320-Sp20-Teams.xlsx
@@ -152,9 +152,6 @@
     <t>Lucas Plaud Smith</t>
   </si>
   <si>
-    <t>Zack Recay</t>
-  </si>
-  <si>
     <t>Team 9:
 YCP Project Database</t>
   </si>
@@ -193,6 +190,9 @@
   <si>
     <t>Team 2:
 Adventure Game</t>
+  </si>
+  <si>
+    <t>Zack Redcay</t>
   </si>
 </sst>
 </file>
@@ -766,7 +766,7 @@
   <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,10 +814,10 @@
     </row>
     <row r="6" spans="2:6" s="2" customFormat="1" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>4</v>
@@ -885,16 +885,16 @@
     </row>
     <row r="14" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -970,16 +970,16 @@
     </row>
     <row r="22" spans="2:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
